--- a/Commsights.MVC/wwwroot/Download/Report/Month/ReportMonthly_150_Mitsubishi_2020_9_20201125153127.xlsx
+++ b/Commsights.MVC/wwwroot/Download/Report/Month/ReportMonthly_150_Mitsubishi_2020_9_20201125153127.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>Segment</t>
   </si>
@@ -445,1621 +445,6 @@
   </si>
   <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baomoi.com(102)
-zingnews.vn(31)
-thanhnien.vn(16)
-ictnews.vietnamnet.vn(9)
-mbv.com.vn(6)
-baodautu.vn(5)
-dantri.com.vn(3)
-vietnamnet.vn(3)
-vnexpress.net(3)
-tuoitre.vn(2)
-plo.vn(1)
-sggp.org.vn(1)
-soha.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autobikes.vn(27)
-autopro.com.vn(17)
-cafeauto.vn(15)
-xehay.vn(13)
-autodaily.vn(11)
-cafef.vn(7)
-xedoisong.vn(6)
-autopress.vn(4)
-doanhnhanplus.vn(2)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vietgiaitri.com(61)
-thethao247.vn(32)
-netnews.vn(20)
-xaluan.com(20)
-docbao.vn(18)
-tintaynguyen.com(17)
-vnreview.vn(10)
-nghean24h.vn(10)
-vietnammoi.vn(7)
-vnmedia.vn(6)
-themanager.vn(5)
-ngoisao.vn(4)
-khoahocdoisong.vn(4)
-sgtiepthi.vn(3)
-vietq.vn(3)
-vinanet.vn(1)
-tinmoi.vn(1)
-xahoi.com.vn(1)
-hanoitv.vn(1)
-hatinh24h.com.vn(1)
-duongbo.vn(1)
-cungcau.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baomoi.com(102)
-vietgiaitri.com(61)
-techz.vn(43)
-thethao247.vn(32)
-zingnews.vn(31)
-autobikes.vn(27)
-news.zing.vn(25)
-kienthuc.net.vn(22)
-netnews.vn(20)
-xaluan.com(20)
-danviet.vn(18)
-docbao.vn(18)
-autopro.com.vn(17)
-tintaynguyen.com(17)
-baoquangninh.com.vn(16)
-thanhnien.vn(16)
-cafeauto.vn(15)
-xehay.vn(13)
-ttvn.toquoc.vn(11)
-autodaily.vn(11)
-baobinhduong.vn(10)
-nghean24h.vn(10)
-vnreview.vn(10)
-ictnews.vietnamnet.vn(9)
-xethitruong.vn(8)
-vietbao.vn(7)
-vietnambiz.vn(7)
-vietnammoi.vn(7)
-cafef.vn(7)
-baocantho.com.vn(6)
-mbv.com.vn(6)
-vietnamfinance.vn(6)
-vnmedia.vn(6)
-xedoisong.vn(6)
-baodautu.vn(5)
-autopress.vn(4)
-doisongphapluat.com(4)
-enternews.vn(4)
-khoahocdoisong.vn(4)
-ngoisao.vn(4)
-qdnd.vn(4)
-vietnamdaily.net.vn(4)
-vietnamnet.vn(3)
-vietq.vn(3)
-vnexpress.net(3)
-vtc.vn(3)
-phapluatxahoi.vn(3)
-thoibao.today(3)
-nguoitieudung.vn(3)
-laodongthudo.vn(3)
-dantri.com.vn(3)
-giadinhvietnam.com(2)
-doanhnhanplus.vn(2)
-truyenhinhthanhhoa.vn(2)
-tuoitre.vn(2)
-vov.vn(1)
-xahoi.com.vn(1)
-vinanet.vn(1)
-duongbo.vn(1)
-cungcau.vn(1)
-baochinhphu.vn(1)
-ngoisao.net(1)
-hatinh24h.com.vn(1)
-hanoitv.vn(1)
-thethao.sggp.org.vn(1)
-thuonghieucongluan.com.vn(1)
-tieudung.vn(1)
-plo.vn(1)
-sggp.org.vn(1)
-soha.vn(1)
-tapchitaichinh.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baomoi.com(3)
-soha.vn(1)
-zingnews.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cafeauto.vn(1)
-autopress.vn(1)
-autopro.com.vn(1)
-autodaily.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vietgiaitri.com(5)
-thethao247.vn(2)
-sgtiepthi.vn(1)
-nghean24h.vn(1)
-netnews.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vietgiaitri.com(5)
-baomoi.com(3)
-thethao247.vn(2)
-news.zing.vn(2)
-netnews.vn(1)
-nghean24h.vn(1)
-soha.vn(1)
-cafeauto.vn(1)
-autopress.vn(1)
-autopro.com.vn(1)
-autodaily.vn(1)
-vietnambiz.vn(1)
-zingnews.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baomoi.com(113)
-mbv.com.vn(19)
-zingnews.vn(17)
-thanhnien.vn(9)
-vietnamnet.vn(8)
-soha.vn(7)
-dantri.com.vn(5)
-ictnews.vietnamnet.vn(5)
-tienphong.vn(5)
-vnexpress.net(5)
-tuoitre.vn(3)
-laodong.vn(2)
-sggp.org.vn(2)
-nld.com.vn(1)
-plo.vn(1)
-baodautu.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autobikes.vn(11)
-autopro.com.vn(9)
-cafeauto.vn(5)
-doanhnhanplus.vn(4)
-xehay.vn(4)
-autodaily.vn(3)
-autopress.vn(2)
-cafef.vn(2)
-xedoisong.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vietgiaitri.com(51)
-vietq.vn(12)
-thethao247.vn(12)
-baohomnay.com(12)
-xaluan.com(11)
-netnews.vn(9)
-khoahocdoisong.vn(6)
-docbao.vn(5)
-xahoi.com.vn(5)
-tinmoi.vn(5)
-nghean24h.vn(4)
-tintaynguyen.com(3)
-vnmedia.vn(2)
-vietnammoi.vn(2)
-tin247.com(1)
-baotintuc.vn(1)
-cungcau.vn(1)
-cafebiz.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baomoi.com(113)
-vietgiaitri.com(51)
-mbv.com.vn(19)
-zingnews.vn(17)
-news.zing.vn(16)
-danviet.vn(16)
-baohomnay.com(12)
-techz.vn(12)
-thethao247.vn(12)
-vietq.vn(12)
-xaluan.com(11)
-autobikes.vn(11)
-baoquangninh.com.vn(10)
-kienthuc.net.vn(10)
-netnews.vn(9)
-thanhnien.vn(9)
-autopro.com.vn(9)
-vietnamnet.vn(8)
-soha.vn(7)
-khoahocdoisong.vn(6)
-baogialai.com.vn(6)
-baohaiduong.vn(6)
-vietnamfinance.vn(6)
-vietbao.vn(6)
-ttvn.toquoc.vn(5)
-xahoi.com.vn(5)
-vnexpress.net(5)
-cafeauto.vn(5)
-dantri.com.vn(5)
-docbao.vn(5)
-ictnews.vietnamnet.vn(5)
-kinhtedothi.vn(4)
-news.otofun.net(4)
-nghean24h.vn(4)
-tieudung.vn(4)
-doanhnhanplus.vn(4)
-vtc.vn(4)
-xehay.vn(4)
-toquoc.vn(3)
-tuoitre.vn(3)
-tintaynguyen.com(3)
-vietnamplus.vn(3)
-congluan.vn(3)
-autodaily.vn(3)
-autopress.vn(2)
-baobinhduong.vn(2)
-baotayninh.vn(2)
-baovinhphuc.com.vn(2)
-cafef.vn(2)
-giadinhvietnam.com(2)
-thuonghieuvaphapluat.vn(2)
-sggp.org.vn(2)
-tapchitaichinh.vn(2)
-laodong.vn(2)
-vietnammoi.vn(2)
-vietnambiz.vn(2)
-vnmedia.vn(2)
-xedoisong.vn(1)
-vtv.vn(1)
-tinquangbinh.com(1)
-tintapchi.com(1)
-tin247.com(1)
-nld.com.vn(1)
-taichinhdoanhnghiep.net.vn(1)
-qdnd.vn(1)
-plo.vn(1)
-phapluatxahoi.vn(1)
-thuonghieucongluan.com.vn(1)
-thoibaonganhang.vn(1)
-thoidai.com.vn(1)
-thoibao.today(1)
-enternews.vn(1)
-congthuong.vn(1)
-cungcau.vn(1)
-baotintuc.vn(1)
-cafebiz.vn(1)
-baophapluat.vn(1)
-bank2go.vn(1)
-baodautu.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baomoi.com(148)
-zingnews.vn(26)
-mbv.com.vn(21)
-vnexpress.net(14)
-vietnamnet.vn(13)
-soha.vn(13)
-dantri.com.vn(9)
-thanhnien.vn(9)
-tienphong.vn(7)
-plo.vn(4)
-hanoimoi.com.vn(2)
-laodong.vn(2)
-baodautu.vn(1)
-ictnews.vietnamnet.vn(1)
-nld.com.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autopro.com.vn(28)
-autobikes.vn(12)
-autodaily.vn(10)
-xedoisong.vn(9)
-xehay.vn(8)
-cafef.vn(7)
-cafeauto.vn(7)
-autopress.vn(5)
-doanhnhanplus.vn(4)
-news.otos.vn(2)
-xeoto.tv(2)
-doanhnhansaigon.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vietgiaitri.com(104)
-xaluan.com(22)
-docbao.vn(21)
-thethao247.vn(16)
-netnews.vn(15)
-vietq.vn(13)
-baohomnay.com(9)
-baohomnay.net(6)
-tinmoi.vn(6)
-khoahocdoisong.vn(5)
-hatinh24h.com.vn(5)
-nghean24h.vn(5)
-xahoi.com.vn(4)
-tintaynguyen.com(3)
-langsontv.vn(3)
-cafebiz.vn(3)
-baotintuc.vn(2)
-taichinhdoisong.vn(2)
-tintucvietnam.vn(2)
-vietpress.vn(1)
-vietnammoi.vn(1)
-tieudungplus.vn(1)
-vnreview.vn(1)
-sgtiepthi.vn(1)
-otoxemay.vn(1)
-tin247.com(1)
-kinhtethitruong.vn(1)
-doanhnghiepthuonghieu.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baomoi.com(148)
-vietgiaitri.com(104)
-danviet.vn(30)
-autopro.com.vn(28)
-zingnews.vn(26)
-techz.vn(25)
-xaluan.com(22)
-mbv.com.vn(21)
-docbao.vn(21)
-news.zing.vn(17)
-thethao247.vn(16)
-baoquangninh.com.vn(16)
-vietnamfinance.vn(16)
-tieudung.vn(15)
-netnews.vn(15)
-vnexpress.net(14)
-vietnamnet.vn(13)
-vietq.vn(13)
-news.otofun.net(13)
-soha.vn(13)
-autobikes.vn(12)
-kienthuc.net.vn(11)
-autodaily.vn(10)
-vietnambiz.vn(10)
-vietnamplus.vn(9)
-xedoisong.vn(9)
-baohomnay.com(9)
-dantri.com.vn(9)
-thanhnien.vn(9)
-xehay.vn(8)
-ttvn.toquoc.vn(7)
-kinhtedothi.vn(7)
-cafef.vn(7)
-cafeauto.vn(7)
-baohomnay.net(6)
-autopress.vn(5)
-enternews.vn(5)
-khoahocdoisong.vn(5)
-hatinh24h.com.vn(5)
-nghean24h.vn(5)
-thoibao.today(5)
-toquoc.vn(5)
-vtc.vn(5)
-xahoi.com.vn(4)
-plo.vn(4)
-tapchitaichinh.vn(4)
-giadinh.net.vn(4)
-doanhnhanplus.vn(4)
-congly.vn(4)
-baobinhduong.vn(4)
-baohaiduong.vn(4)
-cafebiz.vn(3)
-congluan.vn(3)
-langsontv.vn(3)
-tintaynguyen.com(3)
-tintucvietnam.vn(2)
-vietbao.vn(2)
-vietnamdaily.net.vn(2)
-xeoto.tv(2)
-news.otos.vn(2)
-laodong.vn(2)
-taichinhdoisong.vn(2)
-thuonghieucongluan.com.vn(2)
-hanoimoi.com.vn(2)
-giadinhvietnam.com(2)
-baotintuc.vn(2)
-baophapluat.vn(2)
-baohanam.com.vn(2)
-bongdaplus.vn(1)
-baodautu.vn(1)
-doanhnhansaigon.vn(1)
-doisongphapluat.com(1)
-congthuong.vn(1)
-doanhnghiepthuonghieu.vn(1)
-thuonghieuvaphapluat.vn(1)
-thethaovanhoa.vn(1)
-thethaohcm.vn(1)
-otoxemay.vn(1)
-qdnd.vn(1)
-motthegioi.vn(1)
-nld.com.vn(1)
-nhadautu.vn(1)
-oto.com.vn(1)
-nguoitieudung.vn(1)
-kenhdanhgia.net(1)
-kinhtethitruong.vn(1)
-ictnews.vietnamnet.vn(1)
-vtv.vn(1)
-vnreview.vn(1)
-vanhoadoanhnghiepvn.vn(1)
-vietnammoi.vn(1)
-tin247.com(1)
-thoibaokinhdoanh.vn(1)
-tinnhanhchungkhoan.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baomoi.com(219)
-mbv.com.vn(30)
-zingnews.vn(30)
-vietnamnet.vn(20)
-thanhnien.vn(16)
-dantri.com.vn(16)
-vnexpress.net(13)
-plo.vn(6)
-soha.vn(6)
-sggp.org.vn(5)
-hanoimoi.com.vn(3)
-tienphong.vn(3)
-tuoitre.vn(3)
-nld.com.vn(2)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autopro.com.vn(33)
-autobikes.vn(24)
-cafeauto.vn(13)
-cafef.vn(11)
-xehay.vn(11)
-autodaily.vn(9)
-xedoisong.vn(6)
-autopress.vn(4)
-news.otos.vn(1)
-doanhnhanplus.vn(1)
-autonet.com.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vietgiaitri.com(121)
-baohomnay.com(44)
-xaluan.com(37)
-thethao247.vn(29)
-netnews.vn(22)
-vietq.vn(21)
-docbao.vn(14)
-tinmoi.vn(8)
-khoahocdoisong.vn(6)
-nghean24h.vn(6)
-tintaynguyen.com(5)
-vietpress.vn(5)
-tintucvietnam.vn(4)
-vnreview.vn(4)
-luatvietnam.vn(4)
-duongbo.vn(4)
-baohomnay.net(3)
-cungcau.vn(3)
-vietnammoi.vn(3)
-vnmedia.vn(3)
-stockbiz.vn(2)
-thoimoi.vn(2)
-xahoi.com.vn(2)
-hatinh24h.com.vn(2)
-tin247.com(2)
-kinhtethitruong.vn(2)
-kinhdoanhplus.vn(2)
-genk.vn(1)
-doanhnhan.vn(1)
-doanhnghiepthuonghieu.vn(1)
-baomoi.me(1)
-cafebiz.vn(1)
-baotintuc.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baomoi.com(219)
-vietgiaitri.com(121)
-baohomnay.com(44)
-techz.vn(37)
-xaluan.com(37)
-autopro.com.vn(33)
-baoquangninh.com.vn(30)
-mbv.com.vn(30)
-zingnews.vn(30)
-thethao247.vn(29)
-news.zing.vn(27)
-autobikes.vn(24)
-danviet.vn(24)
-netnews.vn(22)
-vietq.vn(21)
-vietnamnet.vn(20)
-vietnamfinance.vn(20)
-thanhnien.vn(16)
-dantri.com.vn(16)
-docbao.vn(14)
-cafeauto.vn(13)
-vnexpress.net(13)
-xehay.vn(11)
-cafef.vn(11)
-tieudung.vn(11)
-kienthuc.net.vn(10)
-kinhtedothi.vn(9)
-enternews.vn(9)
-autodaily.vn(9)
-vietbao.vn(8)
-ttvn.toquoc.vn(7)
-news.otofun.net(7)
-thuonghieucongluan.com.vn(7)
-tapchitaichinh.vn(6)
-soha.vn(6)
-plo.vn(6)
-nghean24h.vn(6)
-khoahocdoisong.vn(6)
-baohaiduong.vn(6)
-haiquanonline.com.vn(6)
-xedoisong.vn(6)
-vtc.vn(5)
-toquoc.vn(5)
-tintaynguyen.com(5)
-vietnamdaily.net.vn(5)
-sggp.org.vn(5)
-luatvietnam.vn(4)
-doisongphapluat.com(4)
-duongbo.vn(4)
-congthuong.vn(4)
-autopress.vn(4)
-baogialai.com.vn(4)
-vietnamplus.vn(4)
-tintucvietnam.vn(4)
-vnreview.vn(4)
-vnmedia.vn(3)
-tuoitre.vn(3)
-vietnammoi.vn(3)
-baodansinh.vn(3)
-baohomnay.net(3)
-congly.vn(3)
-cungcau.vn(3)
-hanoimoi.com.vn(3)
-giadinhvietnam.com(3)
-nguoidothi.net.vn(3)
-thoibaonganhang.vn(3)
-thoibao.today(3)
-thuonghieuvaphapluat.vn(2)
-taichinhcuocsong.vn(2)
-tbdn.com.vn(2)
-nld.com.vn(2)
-hatinh24h.com.vn(2)
-kinhtethitruong.vn(2)
-kinhdoanhplus.vn(2)
-baobinhduong.vn(2)
-bank2go.vn(2)
-vietnambiz.vn(2)
-thoibaotaichinhvietnam.vn(2)
-thoimoi.vn(2)
-tin247.com(2)
-xahoi.com.vn(2)
-vtv.vn(2)
-tinquangbinh.com(1)
-autonet.com.vn(1)
-baomoi.me(1)
-cafebiz.vn(1)
-baotintuc.vn(1)
-giadinh.net.vn(1)
-carpassion.vn(1)
-doanhnhan.vn(1)
-genk.vn(1)
-doanhnhanplus.vn(1)
-dailycar.vn(1)
-doanhnghiepthuonghieu.vn(1)
-dntm.vn(1)
-congluan.vn(1)
-nhipcaudautu.vn(1)
-nhipsongphuongnam.com(1)
-nguoiduatin.vn(1)
-news.otos.vn(1)
-laodongthudo.vn(1)
-phunungaynay.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baomoi.com(32)
-zingnews.vn(7)
-thanhnien.vn(3)
-dantri.com.vn(3)
-mbv.com.vn(3)
-plo.vn(1)
-soha.vn(1)
-vietnamnet.vn(1)
-vnexpress.net(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autodaily.vn(4)
-autobikes.vn(3)
-autopro.com.vn(3)
-cafef.vn(3)
-doanhnhanplus.vn(2)
-xedoisong.vn(2)
-cafeauto.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vietgiaitri.com(12)
-docbao.vn(6)
-tinmoi.vn(4)
-baohomnay.com(3)
-netnews.vn(3)
-nghean24h.vn(2)
-thethao247.vn(2)
-xaluan.com(2)
-vnreview.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baomoi.com(32)
-vietgiaitri.com(12)
-zingnews.vn(7)
-docbao.vn(6)
-news.zing.vn(6)
-autodaily.vn(4)
-vietnamfinance.vn(4)
-autobikes.vn(3)
-autopro.com.vn(3)
-baohomnay.com(3)
-cafef.vn(3)
-dantri.com.vn(3)
-netnews.vn(3)
-mbv.com.vn(3)
-techz.vn(3)
-thanhnien.vn(3)
-thethao247.vn(2)
-thanhtra.com.vn(2)
-nghean24h.vn(2)
-doanhnhanplus.vn(2)
-haiquanonline.com.vn(2)
-baotayninh.vn(2)
-xaluan.com(2)
-xedoisong.vn(2)
-vnexpress.net(1)
-vnreview.vn(1)
-vietnambiz.vn(1)
-vietnamnet.vn(1)
-cafeauto.vn(1)
-enternews.vn(1)
-danviet.vn(1)
-congluan.vn(1)
-kienthuc.net.vn(1)
-tapchicongthuong.vn(1)
-qdnd.vn(1)
-soha.vn(1)
-plo.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baomoi.com(160)
-dantri.com.vn(29)
-zingnews.vn(28)
-mbv.com.vn(18)
-thanhnien.vn(14)
-tienphong.vn(10)
-vnexpress.net(10)
-soha.vn(8)
-vietnamnet.vn(5)
-plo.vn(4)
-hanoimoi.com.vn(3)
-ictnews.vietnamnet.vn(1)
-nld.com.vn(1)
-sggp.org.vn(1)
-tuoitre.vn(1)
-laodong.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autobikes.vn(20)
-autopro.com.vn(13)
-xehay.vn(11)
-autodaily.vn(10)
-cafeauto.vn(10)
-xedoisong.vn(7)
-autopress.vn(6)
-cafef.vn(5)
-news.otos.vn(2)
-doanhnhansaigon.vn(1)
-xeoto.tv(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vietgiaitri.com(90)
-thethao247.vn(28)
-docbao.vn(24)
-xaluan.com(18)
-vietq.vn(15)
-baohomnay.com(11)
-khoahocdoisong.vn(8)
-netnews.vn(7)
-cafebiz.vn(5)
-baomoi.me(5)
-daubao.com(4)
-nghean24h.vn(3)
-duongbo.vn(3)
-vietpress.vn(3)
-tintaynguyen.com(3)
-tinmoi.vn(3)
-vnreview.vn(3)
-xahoi.com.vn(2)
-thoimoi.vn(2)
-vnmedia.vn(2)
-langsontv.vn(2)
-tin247.com(2)
-sgtiepthi.vn(2)
-otoxemay.vn(1)
-kinhtethitruong.vn(1)
-hatinh24h.com.vn(1)
-cafeland.vn(1)
-danang24h.vn(1)
-cungcau.vn(1)
-baohomnay.net(1)
-tinthethao.com.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baomoi.com(160)
-vietgiaitri.com(90)
-dantri.com.vn(29)
-thethao247.vn(28)
-zingnews.vn(28)
-docbao.vn(24)
-danviet.vn(23)
-techz.vn(22)
-news.zing.vn(22)
-autobikes.vn(20)
-mbv.com.vn(18)
-xaluan.com(18)
-vietq.vn(15)
-kienthuc.net.vn(14)
-thanhnien.vn(14)
-autopro.com.vn(13)
-baoquangninh.com.vn(12)
-baohomnay.com(11)
-vietnamfinance.vn(11)
-xehay.vn(11)
-vnexpress.net(10)
-autodaily.vn(10)
-cafeauto.vn(10)
-thuonghieucongluan.com.vn(10)
-kinhtedothi.vn(9)
-vietbao.vn(9)
-khoahocdoisong.vn(8)
-soha.vn(8)
-baogialai.com.vn(8)
-netnews.vn(7)
-ttvn.toquoc.vn(7)
-xedoisong.vn(7)
-tieudung.vn(6)
-autopress.vn(6)
-cafebiz.vn(5)
-baomoi.me(5)
-cafef.vn(5)
-tbdn.com.vn(5)
-tapchitaichinh.vn(5)
-news.otofun.net(5)
-vietnambiz.vn(5)
-vietnamnet.vn(5)
-vietnamdaily.net.vn(4)
-toquoc.vn(4)
-vtc.vn(4)
-plo.vn(4)
-daubao.com(4)
-baohaiduong.vn(4)
-congluan.vn(3)
-duongbo.vn(3)
-doisongphapluat.com(3)
-enternews.vn(3)
-giadinhvietnam.com(3)
-hanoimoi.com.vn(3)
-m.netnews.vn(3)
-nghean24h.vn(3)
-vnreview.vn(3)
-vtv.vn(3)
-tintaynguyen.com(3)
-tin247.com(2)
-thoimoi.vn(2)
-vietnamplus.vn(2)
-vnmedia.vn(2)
-xahoi.com.vn(2)
-news.otos.vn(2)
-nguoitieudung.vn(2)
-langsontv.vn(2)
-thoibao.today(2)
-congly.vn(2)
-baotayninh.vn(2)
-baovinhphuc.com.vn(2)
-bank2go.vn(2)
-baodansinh.vn(1)
-baohomnay.net(1)
-bizlive.vn(1)
-cafeland.vn(1)
-cand.com.vn(1)
-congthuong.vn(1)
-danang24h.vn(1)
-cungcau.vn(1)
-doanhnhansaigon.vn(1)
-doanhnghiepvn.vn(1)
-thuonghieuvaphapluat.vn(1)
-otoxemay.vn(1)
-qdnd.vn(1)
-sggp.org.vn(1)
-kinhtethitruong.vn(1)
-hatinh24h.com.vn(1)
-ictnews.vietnamnet.vn(1)
-nld.com.vn(1)
-nguoidothi.net.vn(1)
-motthegioi.vn(1)
-laodong.vn(1)
-vieclamnambo.vn(1)
-truecar.vn(1)
-vov.vn(1)
-xeoto.tv(1)
-tuoitre.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baomoi.com(66)
-zingnews.vn(14)
-vnexpress.net(10)
-mbv.com.vn(10)
-thanhnien.vn(7)
-soha.vn(6)
-vietnamnet.vn(4)
-dantri.com.vn(3)
-ictnews.vietnamnet.vn(1)
-sggp.org.vn(1)
-nld.com.vn(1)
-tienphong.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autopro.com.vn(11)
-autobikes.vn(9)
-cafeauto.vn(6)
-autopress.vn(4)
-xehay.vn(4)
-autodaily.vn(3)
-cafef.vn(1)
-doanhnhanplus.vn(1)
-xedoisong.vn(1)
-autonet.com.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vietgiaitri.com(47)
-xaluan.com(9)
-netnews.vn(8)
-baohomnay.com(6)
-doanhnghiepthuonghieu.vn(6)
-docbao.vn(6)
-thethao247.vn(5)
-nghean24h.vn(4)
-khoahocdoisong.vn(4)
-tintaynguyen.com(4)
-vietq.vn(4)
-tintucvietnam.vn(3)
-tinmoi.vn(3)
-kinhdoanhplus.vn(3)
-otoxemay.vn(3)
-la34.com.vn(2)
-tin247.com(2)
-hatinh24h.com.vn(1)
-cafebiz.vn(1)
-stockbiz.vn(1)
-vietnammoi.vn(1)
-xahoi.com.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baomoi.com(66)
-vietgiaitri.com(47)
-zingnews.vn(14)
-techz.vn(14)
-autopro.com.vn(11)
-mbv.com.vn(10)
-vnexpress.net(10)
-xaluan.com(9)
-autobikes.vn(9)
-danviet.vn(8)
-netnews.vn(8)
-thuonghieuvaphapluat.vn(8)
-thanhnien.vn(7)
-vietnamfinance.vn(7)
-soha.vn(6)
-kinhtedothi.vn(6)
-kienthuc.net.vn(6)
-doanhnghiepthuonghieu.vn(6)
-docbao.vn(6)
-baohomnay.com(6)
-baohaiduong.vn(6)
-cafeauto.vn(6)
-news.zing.vn(5)
-thethao247.vn(5)
-vtc.vn(5)
-xehay.vn(4)
-vietq.vn(4)
-vietnamnet.vn(4)
-tintaynguyen.com(4)
-thuonghieucongluan.com.vn(4)
-nghean24h.vn(4)
-khoahocdoisong.vn(4)
-autopress.vn(4)
-autodaily.vn(3)
-dantri.com.vn(3)
-kinhdoanhplus.vn(3)
-otoxemay.vn(3)
-saigondautu.com.vn(3)
-tintucvietnam.vn(3)
-ttvn.toquoc.vn(3)
-zestech.vn(3)
-toquoc.vn(2)
-tin247.com(2)
-tapchitaichinh.vn(2)
-tieudung.vn(2)
-thoibao.today(2)
-thethaovanhoa.vn(2)
-la34.com.vn(2)
-news.otofun.net(2)
-congthuong.vn(2)
-congluan.vn(2)
-enternews.vn(2)
-baobinhduong.vn(2)
-baoquangninh.com.vn(2)
-cafebiz.vn(1)
-bongdaplus.vn(1)
-baodatviet.vn(1)
-autonet.com.vn(1)
-giadinhvietnam.com(1)
-doanhnhanplus.vn(1)
-cafef.vn(1)
-nld.com.vn(1)
-nhadautu.vn(1)
-nguoitieudung.vn(1)
-ictnews.vietnamnet.vn(1)
-hatinh24h.com.vn(1)
-thanhtra.com.vn(1)
-thoibaonganhang.vn(1)
-phapluatxahoi.vn(1)
-sggp.org.vn(1)
-vietbao.vn(1)
-vietnammoi.vn(1)
-vietnamdaily.net.vn(1)
-xahoidoisong.vn(1)
-vtv.vn(1)
-xedoisong.vn(1)
-xahoi.com.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baomoi.com(125)
-zingnews.vn(23)
-mbv.com.vn(22)
-vietnamnet.vn(21)
-thanhnien.vn(15)
-soha.vn(11)
-vnexpress.net(10)
-plo.vn(7)
-dantri.com.vn(5)
-tienphong.vn(5)
-hanoimoi.com.vn(2)
-ictnews.vietnamnet.vn(1)
-thesaigontimes.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autopro.com.vn(23)
-autobikes.vn(12)
-cafeauto.vn(8)
-xehay.vn(7)
-xedoisong.vn(6)
-doanhnhanplus.vn(4)
-news.otos.vn(4)
-cafef.vn(3)
-autodaily.vn(3)
-doanhnhansaigon.vn(2)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vietgiaitri.com(76)
-xaluan.com(25)
-docbao.vn(13)
-thethao247.vn(12)
-vietq.vn(10)
-baohomnay.com(9)
-netnews.vn(8)
-vietdaily.vn(6)
-nghean24h.vn(5)
-tin247.com(4)
-tinmoi.vn(4)
-taichinhdoisong.vn(3)
-khoahocdoisong.vn(3)
-baohomnay.net(2)
-baotintuc.vn(2)
-tintaynguyen.com(2)
-xahoi.com.vn(2)
-vnreview.vn(2)
-tinmoi247.net(1)
-vnmedia.vn(1)
-vietnammoi.vn(1)
-cafebiz.vn(1)
-hatinh24h.com.vn(1)
-duongbo.vn(1)
-thegioitiepthi.vn(1)
-sgtiepthi.vn(1)
-giadinhvaphapluat.vn(1)
-langsontv.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baomoi.com(125)
-vietgiaitri.com(76)
-xaluan.com(25)
-techz.vn(24)
-autopro.com.vn(23)
-zingnews.vn(23)
-mbv.com.vn(22)
-vietnamnet.vn(21)
-kienthuc.net.vn(18)
-news.zing.vn(17)
-thanhnien.vn(15)
-vietnamfinance.vn(15)
-docbao.vn(13)
-danviet.vn(12)
-autobikes.vn(12)
-thethao247.vn(12)
-soha.vn(11)
-vietq.vn(10)
-vnexpress.net(10)
-kinhtedothi.vn(9)
-baohomnay.com(9)
-cafeauto.vn(8)
-netnews.vn(8)
-plo.vn(7)
-xehay.vn(7)
-vietnamplus.vn(7)
-xedoisong.vn(6)
-vietdaily.vn(6)
-vtc.vn(6)
-baoquangninh.com.vn(6)
-dantri.com.vn(5)
-doisongphapluat.com(5)
-nghean24h.vn(5)
-ttvn.toquoc.vn(5)
-tin247.com(4)
-news.otos.vn(4)
-thuonghieucongluan.com.vn(4)
-tieudung.vn(4)
-doanhnhanplus.vn(4)
-haiquanonline.com.vn(4)
-congluan.vn(4)
-baohaiduong.vn(4)
-baogialai.com.vn(4)
-autodaily.vn(3)
-cafef.vn(3)
-enternews.vn(3)
-thoidai.com.vn(3)
-taichinhdoisong.vn(3)
-khoahocdoisong.vn(3)
-vtv.vn(3)
-vov.vn(2)
-vnreview.vn(2)
-xahoi.com.vn(2)
-tintaynguyen.com(2)
-toquoc.vn(2)
-vietbao.vn(2)
-vietnambiz.vn(2)
-nguoitieudung.vn(2)
-news.otofun.net(2)
-tapchitaichinh.vn(2)
-hanoimoi.com.vn(2)
-doanhnhansaigon.vn(2)
-baochinhphu.vn(2)
-baohomnay.net(2)
-baophapluat.vn(2)
-baovinhphuc.com.vn(2)
-baotintuc.vn(2)
-bongdaplus.vn(1)
-cafebiz.vn(1)
-bank2go.vn(1)
-doanhnghiepvn.vn(1)
-duongbo.vn(1)
-giadinhvaphapluat.vn(1)
-giadinhvietnam.com(1)
-congthuong.vn(1)
-cand.com.vn(1)
-dntm.vn(1)
-taichinhdoanhnghiep.net.vn(1)
-taichinhcuocsong.vn(1)
-tapchivn.net(1)
-qdnd.vn(1)
-thuonghieuvaphapluat.vn(1)
-thegioitiepthi.vn(1)
-thethaohcm.vn(1)
-thesaigontimes.vn(1)
-nhipsongphuongnam.com(1)
-oto.com.vn(1)
-hatinh24h.com.vn(1)
-ictnews.vietnamnet.vn(1)
-kenhdanhgia.net(1)
-langsontv.vn(1)
-vietnammoi.vn(1)
-tinmoi247.net(1)
-vnmedia.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baomoi.com(35)
-thanhnien.vn(12)
-vietnamnet.vn(11)
-zingnews.vn(10)
-vnexpress.net(8)
-dantri.com.vn(7)
-mbv.com.vn(6)
-soha.vn(4)
-plo.vn(1)
-tienphong.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autopro.com.vn(10)
-tinxe.vn(4)
-autobikes.vn(3)
-cafef.vn(2)
-cafeauto.vn(1)
-xeoto.tv(1)
-xehay.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vietgiaitri.com(18)
-docbao.vn(14)
-vietq.vn(8)
-xaluan.com(8)
-tinmoi247.net(6)
-tin247.com(6)
-xahoi.com.vn(5)
-langsontv.vn(4)
-netnews.vn(4)
-thethao247.vn(3)
-khoahocdoisong.vn(3)
-vietpress.vn(3)
-baohomnay.com(2)
-cafebiz.vn(1)
-hatinh24h.com.vn(1)
-doanhnghiepthuonghieu.vn(1)
-sgtiepthi.vn(1)
-vietnammoi.vn(1)
-vietstock.vn(1)
-stockbiz.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baomoi.com(35)
-vietgiaitri.com(18)
-docbao.vn(14)
-baoquangninh.com.vn(12)
-thanhnien.vn(12)
-danviet.vn(11)
-vietnamnet.vn(11)
-zingnews.vn(10)
-autopro.com.vn(10)
-vnexpress.net(8)
-xaluan.com(8)
-vietq.vn(8)
-dantri.com.vn(7)
-techz.vn(7)
-mbv.com.vn(6)
-kienthuc.net.vn(6)
-tinmoi247.net(6)
-tin247.com(6)
-xahoi.com.vn(5)
-tinxe.vn(4)
-vietnamfinance.vn(4)
-langsontv.vn(4)
-netnews.vn(4)
-soha.vn(4)
-thethao247.vn(3)
-thuonghieucongluan.com.vn(3)
-news.zing.vn(3)
-khoahocdoisong.vn(3)
-doanhnghiepvn.vn(3)
-autobikes.vn(3)
-vietnamplus.vn(3)
-vietnambiz.vn(2)
-vtc.vn(2)
-baogialai.com.vn(2)
-baohomnay.com(2)
-giadinhvietnam.com(2)
-cafef.vn(2)
-diaoc.nld.com.vn(1)
-doanhnghiepthuonghieu.vn(1)
-cafebiz.vn(1)
-cafeauto.vn(1)
-hatinh24h.com.vn(1)
-kinhtedothi.vn(1)
-news.otofun.net(1)
-nguoitieudung.vn(1)
-thuonghieuvaphapluat.vn(1)
-tieudung.vn(1)
-plo.vn(1)
-tapchivn.net(1)
-xehay.vn(1)
-xeoto.tv(1)
-vietstock.vn(1)
-vietnamdaily.net.vn(1)
-vietnammoi.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baomoi.com(8)
-mbv.com.vn(1)
-soha.vn(1)
-thanhnien.vn(1)
-vnexpress.net(1)
-zingnews.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autopro.com.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xaluan.com(3)
-tinmoi.vn(2)
-docbao.vn(2)
-thethao247.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baomoi.com(8)
-xaluan.com(3)
-vietbao.vn(2)
-baoquangninh.com.vn(2)
-danviet.vn(2)
-docbao.vn(2)
-enternews.vn(1)
-congthuong.vn(1)
-afamily.vn(1)
-autopro.com.vn(1)
-soha.vn(1)
-thuonghieuvaphapluat.vn(1)
-thuonghieucongluan.com.vn(1)
-thoidai.com.vn(1)
-thethao247.vn(1)
-thanhnien.vn(1)
-news.otofun.net(1)
-kinhtedothi.vn(1)
-mbv.com.vn(1)
-vnexpress.net(1)
-zingnews.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baomoi.com(44)
-thanhnien.vn(13)
-dantri.com.vn(9)
-zingnews.vn(8)
-vnexpress.net(7)
-mbv.com.vn(6)
-soha.vn(2)
-ictnews.vietnamnet.vn(2)
-vietnamnet.vn(2)
-tienphong.vn(1)
-baodautu.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autobikes.vn(10)
-autodaily.vn(8)
-autopro.com.vn(8)
-autopress.vn(4)
-cafeauto.vn(4)
-cafef.vn(4)
-xehay.vn(3)
-doanhnhanplus.vn(2)
-news.otos.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vietgiaitri.com(36)
-xaluan.com(7)
-thethao247.vn(7)
-netnews.vn(7)
-docbao.vn(6)
-tintaynguyen.com(4)
-khoahocdoisong.vn(3)
-baohomnay.com(2)
-tinmoi.vn(2)
-vietnammoi.vn(1)
-xahoi.com.vn(1)
-baohomnay.net(1)
-cafebiz.vn(1)
-duongbo.vn(1)
-nghean24h.vn(1)
-tin247.com(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baomoi.com(44)
-vietgiaitri.com(36)
-thanhnien.vn(13)
-techz.vn(10)
-autobikes.vn(10)
-dantri.com.vn(9)
-enternews.vn(9)
-autodaily.vn(8)
-autopro.com.vn(8)
-zingnews.vn(8)
-vnexpress.net(7)
-xaluan.com(7)
-thethao247.vn(7)
-kienthuc.net.vn(7)
-netnews.vn(7)
-mbv.com.vn(6)
-kinhtedothi.vn(6)
-docbao.vn(6)
-danviet.vn(6)
-tieudung.vn(5)
-vtc.vn(5)
-vietnamfinance.vn(4)
-tintaynguyen.com(4)
-cafef.vn(4)
-autopress.vn(4)
-baoquangninh.com.vn(4)
-cafeauto.vn(4)
-congluan.vn(3)
-thuonghieuvaphapluat.vn(3)
-khoahocdoisong.vn(3)
-news.zing.vn(3)
-vietbao.vn(3)
-toquoc.vn(3)
-xehay.vn(3)
-vietnamnet.vn(2)
-news.otofun.net(2)
-ictnews.vietnamnet.vn(2)
-tbdn.com.vn(2)
-soha.vn(2)
-doanhnhanplus.vn(2)
-baohomnay.com(2)
-baodautu.vn(1)
-baodansinh.vn(1)
-cafebiz.vn(1)
-baophapluat.vn(1)
-baohomnay.net(1)
-duongbo.vn(1)
-giadinhvietnam.com(1)
-bonbanh.com(1)
-dientutieudung.vn(1)
-tapchitaichinh.vn(1)
-thuonghieucongluan.com.vn(1)
-news.otos.vn(1)
-nghean24h.vn(1)
-vietnammoi.vn(1)
-vietnamplus.vn(1)
-vietnamdaily.net.vn(1)
-tin247.com(1)
-tinnhanhchungkhoan.vn(1)
-xahoi.com.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baomoi.com(254)
-zingnews.vn(56)
-mbv.com.vn(53)
-dantri.com.vn(33)
-thanhnien.vn(31)
-vietnamnet.vn(28)
-vnexpress.net(19)
-soha.vn(15)
-plo.vn(8)
-baodautu.vn(5)
-ictnews.vietnamnet.vn(5)
-hanoimoi.com.vn(4)
-nld.com.vn(2)
-tienphong.vn(2)
-thitruong.nld.com.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autopro.com.vn(36)
-autobikes.vn(35)
-cafeauto.vn(21)
-autodaily.vn(16)
-cafef.vn(15)
-xehay.vn(14)
-autopress.vn(6)
-xedoisong.vn(5)
-doanhnhanplus.vn(3)
-doanhnhansaigon.vn(2)
-tintucoto.com(1)
-xeoto.tv(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vietgiaitri.com(137)
-docbao.vn(45)
-xaluan.com(43)
-vietq.vn(28)
-thethao247.vn(24)
-baohomnay.com(20)
-netnews.vn(13)
-khoahocdoisong.vn(11)
-cafebiz.vn(9)
-nghean24h.vn(5)
-tintaynguyen.com(5)
-xahoi.com.vn(4)
-baohomnay.net(4)
-daubao.com(3)
-tin247.com(3)
-tinmoi247.net(3)
-vietnammoi.vn(3)
-tinmoi.vn(2)
-sgtiepthi.vn(2)
-la34.com.vn(2)
-gialainews.com(2)
-langsontv.vn(2)
-kinhtethitruong.vn(1)
-hanoitv.vn(1)
-otoxemay.vn(1)
-thegioitiepthi.vn(1)
-baotintuc.vn(1)
-bizhub.vn(1)
-cungcau.vn(1)
-baomoi.me(1)
-hatinh24h.com.vn(1)
-doanhnghiepthuonghieu.vn(1)
-thoimoi.vn(1)
-tintucvietnam.vn(1)
-vnmedia.vn(1)
-vnreview.vn(1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baomoi.com(254)
-vietgiaitri.com(137)
-zingnews.vn(56)
-mbv.com.vn(53)
-docbao.vn(45)
-xaluan.com(43)
-techz.vn(39)
-danviet.vn(36)
-autopro.com.vn(36)
-autobikes.vn(35)
-dantri.com.vn(33)
-news.zing.vn(33)
-thanhnien.vn(31)
-vietq.vn(28)
-vietnamnet.vn(28)
-kienthuc.net.vn(25)
-thethao247.vn(24)
-vietnamfinance.vn(23)
-cafeauto.vn(21)
-baohomnay.com(20)
-vnexpress.net(19)
-autodaily.vn(16)
-cafef.vn(15)
-soha.vn(15)
-xehay.vn(14)
-news.otofun.net(13)
-netnews.vn(13)
-khoahocdoisong.vn(11)
-kinhtedothi.vn(11)
-enternews.vn(11)
-baogialai.com.vn(10)
-baoquangninh.com.vn(10)
-vietbao.vn(10)
-cafebiz.vn(9)
-plo.vn(8)
-ttvn.toquoc.vn(8)
-thuonghieucongluan.com.vn(7)
-tieudung.vn(7)
-thoidai.com.vn(6)
-baotayninh.vn(6)
-autopress.vn(6)
-haiquanonline.com.vn(6)
-congluan.vn(6)
-congly.vn(5)
-doisongphapluat.com(5)
-baodautu.vn(5)
-tapchitaichinh.vn(5)
-ictnews.vietnamnet.vn(5)
-nghean24h.vn(5)
-tintaynguyen.com(5)
-vietnamdaily.net.vn(5)
-xedoisong.vn(5)
-vtc.vn(5)
-xahoi.com.vn(4)
-nguoitieudung.vn(4)
-thoibao.today(4)
-bank2go.vn(4)
-baohomnay.net(4)
-baohaiduong.vn(4)
-hanoimoi.com.vn(4)
-doanhnhanplus.vn(3)
-doanhnghiepvn.vn(3)
-daubao.com(3)
-thuonghieuvaphapluat.vn(3)
-taichinhdoanhnghiep.net.vn(3)
-m.netnews.vn(3)
-vov.vn(3)
-vietnambiz.vn(3)
-vietnammoi.vn(3)
-vietnamplus.vn(3)
-tinmoi247.net(3)
-tin247.com(3)
-truyenhinhthanhhoa.vn(2)
-vovgiaothong.vn(2)
-vtv.vn(2)
-nld.com.vn(2)
-langsontv.vn(2)
-la34.com.vn(2)
-tbdn.com.vn(2)
-qdnd.vn(2)
-thoibaonganhang.vn(2)
-congthuong.vn(2)
-doanhnhansaigon.vn(2)
-gialainews.com(2)
-giadinh.net.vn(2)
-baovinhphuc.com.vn(2)
-bizhub.vn(1)
-bongdaplus.vn(1)
-baotintuc.vn(1)
-baophapluat.vn(1)
-baomoi.me(1)
-baodatviet.vn(1)
-giaxesaigon.com(1)
-giadinhvietnam.com(1)
-cungcau.vn(1)
-doanhnghiepthuonghieu.vn(1)
-thethaovanhoa.vn(1)
-thitruong.nld.com.vn(1)
-thegioitiepthi.vn(1)
-thanhtra.com.vn(1)
-sohuutritue.net.vn(1)
-phapluatxahoi.vn(1)
-otoxemay.vn(1)
-saigondautu.com.vn(1)
-tapchithue.com.vn(1)
-hanoitv.vn(1)
-kinhtethitruong.vn(1)
-hatinh24h.com.vn(1)
-kinhdoanhnet.vn(1)
-oto.com.vn(1)
-nhipsongphuongnam.com(1)
-xeoto.tv(1)
-vnreview.vn(1)
-vnmedia.vn(1)
-toquoc.vn(1)
-tinnhanhchungkhoan.vn(1)
-thoimoi.vn(1)
-thoibaokinhdoanh.vn(1)
-tintucoto.com(1)
-tintucvietnam.vn(1)
-tintapchi.com(1)
-vietnamnews.vn(1)
-</t>
   </si>
 </sst>
 </file>
@@ -2123,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
@@ -2139,12 +524,6 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" borderId="1" applyBorder="1" xfId="0">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" borderId="1" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" borderId="1" applyBorder="1" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11292,7 +9671,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11322,227 +9701,6 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
